--- a/温控箱说明指令.xlsx
+++ b/温控箱说明指令.xlsx
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>继电器相关</t>
   </si>
@@ -256,14 +256,13 @@
     <t>控制电磁阀16</t>
   </si>
   <si>
-    <t>MFC相关（暂未确定）</t>
+    <t>MFC相关</t>
   </si>
   <si>
     <t>1. Valve Open
 2. Valve Close
 3. Set Gas Value
-4. Get Gas Value
-5.初始狀態 : Valve Close</t>
+4.初始狀態 : Valve Close</t>
   </si>
   <si>
     <r>
@@ -299,11 +298,83 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-GET_MFC_1_GAS
-GET_MFC_1_Status</t>
-    </r>
-  </si>
-  <si>
+GET_MFC_1_GAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RESP_MFC_1_Open
+RESP_MFC_1_Close
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESP_MFC_1_GAS_1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000 means 1sccm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入时补零，见后方说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -312,21 +383,26 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RESP_MFC_1_Open
-RESP_MFC_1_Close
-RESP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_MFC_1_GAS_1000   // 1000 means 1sccm
-</t>
+      <t xml:space="preserve">
+RESP_MFC_1_GAS_Value // Value 為數值（例如流量值为190.560sccm，回执为RESP_MFC_1_GAS_190560）</t>
+    </r>
+  </si>
+  <si>
+    <t>控制MFC1</t>
+  </si>
+  <si>
+    <r>
+      <t>控制MFC的流量指令SET_MFC_1_GAS_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
     </r>
     <r>
       <rPr>
@@ -336,13 +412,59 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-RESP_MFC_1_GAS_Value // Value 為數值
-RESP_MFC_1_Status_Value// Value 為 ON / OFF</t>
-    </r>
-  </si>
-  <si>
-    <t>控制MFC1</t>
+      <t>，1000代表1sccm。期望流量为190.56sccm时，输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>190560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为50.00sccm时输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>050000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+查询MFC的流量指令回执，Value显示正常的流量值，例如流量值为190.560sccm，回执为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESP_MFC_1_GAS_190560</t>
+    </r>
   </si>
   <si>
     <t>Full Scale Flow Ranges : 0- 200 sccm
@@ -382,11 +504,83 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-GET_MFC_2_GAS
-GET_MFC_2_Status</t>
-    </r>
-  </si>
-  <si>
+GET_MFC_2_GAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RESP_MFC_2_Open
+RESP_MFC_2_Close
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESP_MFC_2_GAS_1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000 means 1sccm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入时补零，见后方说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -395,21 +589,26 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RESP_MFC_2_Open
-RESP_MFC_2_Close
-RESP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_MFC_2_GAS_1000   // 1000 means 1sccm
-</t>
+      <t xml:space="preserve">
+RESP_MFC_2_GAS_Value // Value 為數值（例如流量值为190.560sccm，回执为RESP_MFC_2_GAS_190560）</t>
+    </r>
+  </si>
+  <si>
+    <t>控制MFC2</t>
+  </si>
+  <si>
+    <r>
+      <t>控制MFC的流量指令SET_MFC_2_GAS_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
     </r>
     <r>
       <rPr>
@@ -419,13 +618,59 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-RESP_MFC_2_GAS_Value // Value 為數值
-RESP_MFC_2_Status_Value// Value 為 ON / OFF</t>
-    </r>
-  </si>
-  <si>
-    <t>控制MFC2</t>
+      <t>，1000代表1sccm。期望流量为190.56sccm时，输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>190560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为50.00sccm时输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>050000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+查询MFC的流量指令回执，Value显示正常的流量值，例如流量值为190.560sccm，回执为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESP_MFC_2_GAS_190560</t>
+    </r>
   </si>
   <si>
     <r>
@@ -461,11 +706,83 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-GET_MFC_12_GAS
-GET_MFC_12_Status</t>
-    </r>
-  </si>
-  <si>
+GET_MFC_12_GAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RESP_MFC_12_Open
+RESP_MFC_12_Close
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESP_MFC_12_GAS_1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000 means 1sccm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入时补零，见后方说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -474,21 +791,26 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RESP_MFC_12_Open
-RESP_MFC_12_Close
-RESP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_MFC_12_GAS_1000   // 1000 means 1sccm
-</t>
+      <t xml:space="preserve">
+RESP_MFC_12_GAS_Value // Value 為數值（例如流量值为190.560sccm，回执为RESP_MFC_12_GAS_190560）</t>
+    </r>
+  </si>
+  <si>
+    <t>控制MFC12</t>
+  </si>
+  <si>
+    <r>
+      <t>控制MFC的流量指令SET_MFC_12_GAS_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
     </r>
     <r>
       <rPr>
@@ -498,13 +820,59 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-RESP_MFC_12_GAS_Value // Value 為數值
-RESP_MFC_12_Status_Value// Value 為 ON / OFF</t>
-    </r>
-  </si>
-  <si>
-    <t>控制MFC12</t>
+      <t>，1000代表1sccm。期望流量为190.56sccm时，输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>190560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为50.00sccm时输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>050000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+查询MFC的流量指令回执，Value显示正常的流量值，例如流量值为190.560sccm，回执为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESP_MFC_12_GAS_190560</t>
+    </r>
   </si>
   <si>
     <t>温度控制通道相关（目前已經確定的，可能會有增加）</t>
@@ -646,12 +1014,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,8 +1065,121 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,14 +1193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -728,35 +1201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -765,79 +1209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,187 +1247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,6 +1438,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1070,6 +1466,50 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1098,65 +1538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1165,10 +1546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,133 +1558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,8 +2034,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1790,7 +2171,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="99.75" spans="1:7">
+    <row r="8" ht="109" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1806,110 +2187,116 @@
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="99.75" spans="1:6">
+    <row r="9" ht="110" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="99.75" spans="1:5">
+    <row r="10" ht="110" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" ht="18.75" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" ht="130" customHeight="1" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="99.75" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="99.75" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
